--- a/biology/Botanique/Saccharum_robustum/Saccharum_robustum.xlsx
+++ b/biology/Botanique/Saccharum_robustum/Saccharum_robustum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saccharum robustum est une espèce de plantes monocotylédones de la famille des Poaceae, originaire de Papouasie-Nouvelle-Guinée. Cette espèce est considérée comme l'ancêtre principal de la canne à sucre cultivée.
 C'est une plante ligneuse, à la croissance vigoureuse, vivace par ses rhizomes, aux tiges dressées, pouvant atteindre dix mètres de haut, qui forme des peuplements denses sur les berges des rivières.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles sont larges et retombantes parfois pubescentes. Les tiges ont 20-30 cm de diamètres. Elles ne sont pas sucrées et très ligneuses. La souche présente un très fort tallage. Son cycle végétatif est supérieur à 24 mois.
 La floraison est faible et étalée dans le temps. Les épillets ont trois à quatre glumes.
@@ -545,7 +559,9 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Nombres de base 10 avec deux cytotypes 2n=60 et 2n=80
 </t>
